--- a/tests/TestCase/Excel/ExcelReaderTest/test_xlsx.xlsx
+++ b/tests/TestCase/Excel/ExcelReaderTest/test_xlsx.xlsx
@@ -190,6 +190,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -445,17 +446,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -468,7 +469,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.6"/>
@@ -659,87 +660,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>520</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>4250</v>
-      </c>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="7" t="n">
-        <v>2635</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>520</v>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="n">
+        <v>4250</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="7" t="n">
+        <v>2635</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="5" t="n">
+        <v>520</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -877,7 +878,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -900,7 +901,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1015,7 +1016,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1038,7 +1039,7 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1153,7 +1154,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1176,7 +1177,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1314,7 +1315,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1337,7 +1338,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1406,6 +1407,29 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1418,17 +1442,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="4:4 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.79"/>
@@ -1439,10 +1463,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="35.09"/>
